--- a/backend/web/grid-export.xlsx
+++ b/backend/web/grid-export.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worksheet'!$A$1:$AI$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worksheet'!$A$1:$AI$50</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
   <si>
     <t>ID</t>
   </si>
@@ -121,133 +121,565 @@
     <t>Агент(#1)</t>
   </si>
   <si>
+    <t>Изолированная</t>
+  </si>
+  <si>
+    <t>Новые дома</t>
+  </si>
+  <si>
+    <t>проспект Льва Ландау</t>
+  </si>
+  <si>
+    <t>евро</t>
+  </si>
+  <si>
+    <t>0509559088</t>
+  </si>
+  <si>
+    <t>студия</t>
+  </si>
+  <si>
+    <t>Кирпич</t>
+  </si>
+  <si>
+    <t>СОФИТ</t>
+  </si>
+  <si>
+    <t>E-4</t>
+  </si>
+  <si>
+    <t>(не задано)</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>27.11.2019</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Продажа</t>
+  </si>
+  <si>
+    <t>Полянская Римма Васильевна</t>
+  </si>
+  <si>
+    <t>БАВАРИЯ</t>
+  </si>
+  <si>
+    <t>Григоровское шоссе</t>
+  </si>
+  <si>
+    <t>кап.ремонт</t>
+  </si>
+  <si>
+    <t>0973584020</t>
+  </si>
+  <si>
+    <t>разд</t>
+  </si>
+  <si>
+    <t>A-1</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>8 хлебзавод</t>
+  </si>
+  <si>
+    <t>Салтовское шоссе</t>
+  </si>
+  <si>
+    <t>жилое</t>
+  </si>
+  <si>
+    <t>0505666237</t>
+  </si>
+  <si>
+    <t>Панель</t>
+  </si>
+  <si>
+    <t>КВАРТАЛ</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Журавлевка</t>
+  </si>
+  <si>
+    <t>улица Новоалександровская</t>
+  </si>
+  <si>
+    <t>54а</t>
+  </si>
+  <si>
+    <t>0987250000</t>
+  </si>
+  <si>
+    <t>604 м/р</t>
+  </si>
+  <si>
+    <t>проспект Юбилейный</t>
+  </si>
+  <si>
+    <t>0937638233</t>
+  </si>
+  <si>
+    <t>ЛУКА ДН</t>
+  </si>
+  <si>
+    <t>Skc</t>
+  </si>
+  <si>
+    <t>бульвар Жасминовый</t>
+  </si>
+  <si>
+    <t>0637566546</t>
+  </si>
+  <si>
+    <t>ВОСТОК</t>
+  </si>
+  <si>
+    <t>520 м/р</t>
+  </si>
+  <si>
+    <t>улица Академика Павлова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132в </t>
+  </si>
+  <si>
+    <t>космет.рем</t>
+  </si>
+  <si>
+    <t>0958603358</t>
+  </si>
+  <si>
+    <t>531 м/р</t>
+  </si>
+  <si>
+    <t>улица Героев Труда</t>
+  </si>
+  <si>
+    <t>0951787019</t>
+  </si>
+  <si>
+    <t>ВИСТА</t>
+  </si>
+  <si>
+    <t>602 м/р</t>
+  </si>
+  <si>
+    <t>хор.сост.</t>
+  </si>
+  <si>
+    <t>0674504005</t>
+  </si>
+  <si>
+    <t>ОЛИМП</t>
+  </si>
+  <si>
+    <t>проспект Героев Сталинграда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181а </t>
+  </si>
+  <si>
+    <t>0982476836</t>
+  </si>
+  <si>
+    <t>ПРОКОНСУЛ</t>
+  </si>
+  <si>
+    <t>0679185055</t>
+  </si>
+  <si>
+    <t>АВЕРС</t>
+  </si>
+  <si>
+    <t>проспект Петра Григоренко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10б </t>
+  </si>
+  <si>
+    <t>0502103223</t>
+  </si>
+  <si>
+    <t>керам/бет</t>
+  </si>
+  <si>
+    <t>Московский проспект</t>
+  </si>
+  <si>
+    <t>204/2</t>
+  </si>
+  <si>
+    <t>Пятихатки</t>
+  </si>
+  <si>
+    <t>проспект Академика Курчатова</t>
+  </si>
+  <si>
+    <t>0957487709</t>
+  </si>
+  <si>
+    <t>ЦЕНТР ПЛЮС</t>
+  </si>
+  <si>
+    <t>Одесская</t>
+  </si>
+  <si>
+    <t>Зерновой переулок</t>
+  </si>
+  <si>
+    <t>6/7</t>
+  </si>
+  <si>
+    <t>0960887603</t>
+  </si>
+  <si>
+    <t>2+1</t>
+  </si>
+  <si>
+    <t>ЭЛИТОН</t>
+  </si>
+  <si>
+    <t>улица Ощепкова</t>
+  </si>
+  <si>
+    <t>16/2</t>
+  </si>
+  <si>
+    <t>0972082501</t>
+  </si>
+  <si>
+    <t>АРБАТ</t>
+  </si>
+  <si>
+    <t>Центр</t>
+  </si>
+  <si>
+    <t>улица Тринклера</t>
+  </si>
+  <si>
+    <t>дизайнерский ремонт</t>
+  </si>
+  <si>
+    <t>0507191923</t>
+  </si>
+  <si>
+    <t>МЕГАПОЛИС</t>
+  </si>
+  <si>
+    <t>M-19</t>
+  </si>
+  <si>
+    <t>Госпром</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Данилевского, </t>
+  </si>
+  <si>
+    <t>0660120601</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Киргизская улица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9д </t>
+  </si>
+  <si>
+    <t>0685879835</t>
+  </si>
+  <si>
+    <t>Павлово Поле</t>
+  </si>
+  <si>
+    <t>улица Балакирева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 а </t>
+  </si>
+  <si>
+    <t>0931391750</t>
+  </si>
+  <si>
+    <t>КАПИТАЛ</t>
+  </si>
+  <si>
+    <t>улица Танкопия</t>
+  </si>
+  <si>
+    <t>0665179994</t>
+  </si>
+  <si>
+    <t>K-1</t>
+  </si>
+  <si>
+    <t>вулиця Зернова</t>
+  </si>
+  <si>
+    <t>0675854769</t>
+  </si>
+  <si>
     <t>Гостинка</t>
   </si>
   <si>
-    <t>Одесская</t>
-  </si>
-  <si>
-    <t>улица Аскольдовская</t>
-  </si>
-  <si>
-    <t>6б</t>
-  </si>
-  <si>
-    <t>жилое</t>
-  </si>
-  <si>
-    <t>0632625271</t>
-  </si>
-  <si>
-    <t>(не задано)</t>
-  </si>
-  <si>
-    <t>Кирпич</t>
-  </si>
-  <si>
-    <t>КВАРТАЛ</t>
-  </si>
-  <si>
-    <t>A-18</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>07.07.2019</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>Продажа</t>
-  </si>
-  <si>
-    <t>Изолированная</t>
+    <t>ХТЗ</t>
+  </si>
+  <si>
+    <t>улица Библика</t>
+  </si>
+  <si>
+    <t>строит.рем.</t>
+  </si>
+  <si>
+    <t>0509236365</t>
+  </si>
+  <si>
+    <t>Киевская метро</t>
+  </si>
+  <si>
+    <t>улица Академика Проскуры</t>
+  </si>
+  <si>
+    <t>0987061094</t>
+  </si>
+  <si>
+    <t>Старая Салтовка</t>
+  </si>
+  <si>
+    <t>Адыгейский переулок</t>
+  </si>
+  <si>
+    <t>0502297994</t>
+  </si>
+  <si>
+    <t>524 м/р</t>
+  </si>
+  <si>
+    <t>улица Бучмы</t>
+  </si>
+  <si>
+    <t>0956525417</t>
+  </si>
+  <si>
+    <t>ЧАСТНЫЙ МАКЛЕР</t>
+  </si>
+  <si>
+    <t>улица Харьковских Дивизий</t>
+  </si>
+  <si>
+    <t>без ремонта</t>
+  </si>
+  <si>
+    <t>0681933877</t>
+  </si>
+  <si>
+    <t>Х Р</t>
+  </si>
+  <si>
+    <t>проспект Науки</t>
+  </si>
+  <si>
+    <t>0990251593</t>
+  </si>
+  <si>
+    <t>Клочковская улица</t>
+  </si>
+  <si>
+    <t>0979737608</t>
+  </si>
+  <si>
+    <t>АЛЬЯНС</t>
+  </si>
+  <si>
+    <t>улица 23-го Августа</t>
+  </si>
+  <si>
+    <t>0961821765</t>
+  </si>
+  <si>
+    <t>0677323098</t>
+  </si>
+  <si>
+    <t>улица Деревянко</t>
+  </si>
+  <si>
+    <t>0936580054</t>
+  </si>
+  <si>
+    <t>СЛАВА</t>
+  </si>
+  <si>
+    <t>Сосновая горка</t>
+  </si>
+  <si>
+    <t>0660541625</t>
+  </si>
+  <si>
+    <t>1+1</t>
+  </si>
+  <si>
+    <t>МЕТРАЖ</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>26.11.2019</t>
+  </si>
+  <si>
+    <t>Основа</t>
+  </si>
+  <si>
+    <t>улица Южнопроектная</t>
+  </si>
+  <si>
+    <t>0990686503</t>
+  </si>
+  <si>
+    <t>ХАН</t>
+  </si>
+  <si>
+    <t>АЛЕКСЕЕВКА</t>
+  </si>
+  <si>
+    <t>проспект Людвига Свободы</t>
+  </si>
+  <si>
+    <t>0665209992</t>
+  </si>
+  <si>
+    <t>БУЛЬВАР</t>
+  </si>
+  <si>
+    <t>Забайкальский переулок</t>
+  </si>
+  <si>
+    <t>0950507439</t>
+  </si>
+  <si>
+    <t>204/1</t>
+  </si>
+  <si>
+    <t>0936876216</t>
+  </si>
+  <si>
+    <t>0999681959</t>
+  </si>
+  <si>
+    <t>Гагарина метро</t>
+  </si>
+  <si>
+    <t>Харьковская набережная</t>
+  </si>
+  <si>
+    <t>7/9</t>
+  </si>
+  <si>
+    <t>0982151452</t>
+  </si>
+  <si>
+    <t>НЭО</t>
+  </si>
+  <si>
+    <t>Площадь Восстания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вулиця Бестужева </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0963538518</t>
+  </si>
+  <si>
+    <t>0501938679</t>
+  </si>
+  <si>
+    <t>Познанская улица</t>
+  </si>
+  <si>
+    <t>незаконченный ремонт</t>
+  </si>
+  <si>
+    <t>0969657246</t>
+  </si>
+  <si>
+    <t>улица Леонида Быкова</t>
+  </si>
+  <si>
+    <t>0667604005</t>
+  </si>
+  <si>
+    <t>0972050324</t>
+  </si>
+  <si>
+    <t>улица Баварская</t>
+  </si>
+  <si>
+    <t>0952316459</t>
+  </si>
+  <si>
+    <t>Нагорный</t>
+  </si>
+  <si>
+    <t>улица Маяковского</t>
+  </si>
+  <si>
+    <t>0672009060</t>
+  </si>
+  <si>
+    <t>Валион</t>
   </si>
   <si>
     <t>проспект Гагарина</t>
   </si>
   <si>
-    <t>163а</t>
-  </si>
-  <si>
-    <t>космет.рем</t>
-  </si>
-  <si>
-    <t>0504079095</t>
-  </si>
-  <si>
-    <t>смеж</t>
-  </si>
-  <si>
-    <t>ЛУКА ДН</t>
-  </si>
-  <si>
-    <t>Комната</t>
-  </si>
-  <si>
-    <t>улица Александра Матросова</t>
-  </si>
-  <si>
-    <t>8б</t>
-  </si>
-  <si>
-    <t>0507407373</t>
-  </si>
-  <si>
-    <t>Панель</t>
-  </si>
-  <si>
-    <t>КАСКАД</t>
-  </si>
-  <si>
-    <t>ХТЗ</t>
-  </si>
-  <si>
-    <t>бульвар Ивана Каркача</t>
-  </si>
-  <si>
-    <t>0502878501</t>
-  </si>
-  <si>
-    <t>ЧАСТНЫЙ МАКЛЕР</t>
-  </si>
-  <si>
-    <t>Киргизская улица</t>
-  </si>
-  <si>
-    <t>0968504660</t>
-  </si>
-  <si>
-    <t>1+1</t>
-  </si>
-  <si>
-    <t>ГОРОД</t>
-  </si>
-  <si>
-    <t>Зерновой переулок</t>
-  </si>
-  <si>
-    <t>кап.ремонт</t>
-  </si>
-  <si>
-    <t>0686685179</t>
-  </si>
-  <si>
-    <t>разд</t>
-  </si>
-  <si>
-    <t>12б</t>
-  </si>
-  <si>
-    <t>0732710414</t>
-  </si>
-  <si>
-    <t>керам/бет</t>
-  </si>
-  <si>
-    <t>0996341261</t>
+    <t xml:space="preserve">173в </t>
+  </si>
+  <si>
+    <t>0993941681</t>
+  </si>
+  <si>
+    <t>улица Гвардейцев-Широнинцев</t>
+  </si>
+  <si>
+    <t>0985942802</t>
+  </si>
+  <si>
+    <t>Холодная гора</t>
+  </si>
+  <si>
+    <t>улица Афанасьевская</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>0972653911</t>
+  </si>
+  <si>
+    <t>свобод</t>
+  </si>
+  <si>
+    <t>улица Кооперативная</t>
+  </si>
+  <si>
+    <t>0673694369</t>
+  </si>
+  <si>
+    <t>ХАРЬКОВ-РИЭЛКОМ</t>
   </si>
 </sst>
 </file>
@@ -608,7 +1040,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AI51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -619,8 +1051,8 @@
   <cols>
     <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="31.706543" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="34.134521" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="5.855713" bestFit="true" customWidth="true" style="0"/>
@@ -628,14 +1060,14 @@
     <col min="9" max="9" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="5.855713" bestFit="true" customWidth="true" style="0"/>
@@ -651,7 +1083,7 @@
     <col min="32" max="32" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="31.706543" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -763,7 +1195,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2">
-        <v>57340</v>
+        <v>60034</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -774,56 +1206,56 @@
       <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
+      <c r="E2">
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2">
+        <v>37000</v>
+      </c>
+      <c r="N2" t="s">
         <v>38</v>
       </c>
-      <c r="M2">
-        <v>11000</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>39</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
-        <v>43</v>
-      </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V2" t="s">
         <v>44</v>
@@ -838,7 +1270,7 @@
         <v>46</v>
       </c>
       <c r="Z2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA2"/>
       <c r="AB2"/>
@@ -851,48 +1283,48 @@
         <v>47</v>
       </c>
       <c r="AI2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3">
-        <v>57339</v>
+        <v>60033</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" t="s">
         <v>50</v>
       </c>
+      <c r="E3">
+        <v>73</v>
+      </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="J3">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
         <v>51</v>
       </c>
       <c r="M3">
-        <v>22000</v>
+        <v>65000</v>
       </c>
       <c r="N3" t="s">
         <v>52</v>
@@ -901,22 +1333,22 @@
         <v>53</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" t="s">
         <v>54</v>
       </c>
-      <c r="T3" t="s">
-        <v>43</v>
-      </c>
       <c r="U3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V3" t="s">
         <v>44</v>
@@ -928,10 +1360,10 @@
         <v>45</v>
       </c>
       <c r="Y3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Z3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA3"/>
       <c r="AB3"/>
@@ -944,57 +1376,57 @@
         <v>47</v>
       </c>
       <c r="AI3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4">
-        <v>57338</v>
+        <v>60032</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
         <v>57</v>
       </c>
+      <c r="E4">
+        <v>118</v>
+      </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>17500</v>
+        <v>23000</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1003,16 +1435,16 @@
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T4" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="U4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="W4" t="s">
         <v>45</v>
@@ -1021,10 +1453,10 @@
         <v>45</v>
       </c>
       <c r="Y4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Z4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA4"/>
       <c r="AB4"/>
@@ -1037,57 +1469,57 @@
         <v>47</v>
       </c>
       <c r="AI4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5">
-        <v>57337</v>
+        <v>60031</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5">
-        <v>10500</v>
+        <v>115000</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s">
         <v>40</v>
-      </c>
-      <c r="P5" t="s">
-        <v>41</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1096,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s">
         <v>44</v>
@@ -1114,10 +1546,10 @@
         <v>45</v>
       </c>
       <c r="Y5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Z5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA5"/>
       <c r="AB5"/>
@@ -1130,72 +1562,72 @@
         <v>47</v>
       </c>
       <c r="AI5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6">
-        <v>57336</v>
+        <v>60030</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="J6">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V6" t="s">
         <v>44</v>
@@ -1207,10 +1639,10 @@
         <v>45</v>
       </c>
       <c r="Y6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Z6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA6"/>
       <c r="AB6"/>
@@ -1223,57 +1655,57 @@
         <v>47</v>
       </c>
       <c r="AI6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7">
-        <v>57335</v>
+        <v>60029</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="J7">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7">
+        <v>26000</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
         <v>53</v>
       </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="L7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7">
-        <v>49900</v>
-      </c>
-      <c r="N7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" t="s">
-        <v>72</v>
-      </c>
       <c r="P7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1282,16 +1714,16 @@
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="U7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="W7" t="s">
         <v>45</v>
@@ -1300,10 +1732,10 @@
         <v>45</v>
       </c>
       <c r="Y7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA7"/>
       <c r="AB7"/>
@@ -1316,72 +1748,72 @@
         <v>47</v>
       </c>
       <c r="AI7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8">
-        <v>57334</v>
+        <v>60028</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>65</v>
+      </c>
+      <c r="J8">
+        <v>55</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8">
+        <v>37500</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
       </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>44</v>
-      </c>
-      <c r="J8">
-        <v>30</v>
-      </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8">
-        <v>22000</v>
-      </c>
-      <c r="N8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" t="s">
-        <v>67</v>
-      </c>
-      <c r="P8" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
       <c r="R8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="T8" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V8" t="s">
         <v>44</v>
@@ -1393,10 +1825,10 @@
         <v>45</v>
       </c>
       <c r="Y8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Z8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA8"/>
       <c r="AB8"/>
@@ -1409,24 +1841,24 @@
         <v>47</v>
       </c>
       <c r="AI8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9">
-        <v>57333</v>
+        <v>60027</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
+        <v>82</v>
+      </c>
+      <c r="E9">
+        <v>29</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -1435,32 +1867,32 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I9">
+        <v>64</v>
+      </c>
+      <c r="J9">
+        <v>48</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9">
+        <v>54000</v>
+      </c>
+      <c r="N9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s">
         <v>60</v>
       </c>
-      <c r="J9">
-        <v>45</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9">
-        <v>27000</v>
-      </c>
-      <c r="N9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" t="s">
-        <v>59</v>
-      </c>
       <c r="Q9">
         <v>1</v>
       </c>
@@ -1468,13 +1900,13 @@
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="T9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V9" t="s">
         <v>44</v>
@@ -1486,10 +1918,10 @@
         <v>45</v>
       </c>
       <c r="Y9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Z9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA9"/>
       <c r="AB9"/>
@@ -1502,12 +1934,3908 @@
         <v>47</v>
       </c>
       <c r="AI9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10">
+        <v>60026</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10">
+        <v>246</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>70</v>
+      </c>
+      <c r="J10">
+        <v>55</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10">
+        <v>42000</v>
+      </c>
+      <c r="N10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10" t="s">
+        <v>72</v>
+      </c>
+      <c r="U10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10" t="s">
+        <v>45</v>
+      </c>
+      <c r="X10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
+      <c r="A11">
+        <v>60025</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>55</v>
+      </c>
+      <c r="J11">
+        <v>37</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11">
+        <v>35000</v>
+      </c>
+      <c r="N11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>92</v>
+      </c>
+      <c r="T11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
+      <c r="A12">
+        <v>60024</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>70</v>
+      </c>
+      <c r="J12">
+        <v>55</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12">
+        <v>46000</v>
+      </c>
+      <c r="N12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s">
+        <v>94</v>
+      </c>
+      <c r="T12" t="s">
+        <v>72</v>
+      </c>
+      <c r="U12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13">
+        <v>60023</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13">
+        <v>8700</v>
+      </c>
+      <c r="N13" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" t="s">
+        <v>72</v>
+      </c>
+      <c r="U13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14">
+        <v>60022</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>65</v>
+      </c>
+      <c r="J14">
+        <v>55</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14">
+        <v>54000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" t="s">
         <v>40</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>94</v>
+      </c>
+      <c r="T14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" t="s">
+        <v>44</v>
+      </c>
+      <c r="W14" t="s">
+        <v>45</v>
+      </c>
+      <c r="X14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="A15">
+        <v>60021</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>65</v>
+      </c>
+      <c r="J15">
+        <v>45</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15">
+        <v>38000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15" t="s">
+        <v>104</v>
+      </c>
+      <c r="T15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" t="s">
+        <v>44</v>
+      </c>
+      <c r="W15" t="s">
+        <v>45</v>
+      </c>
+      <c r="X15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="A16">
+        <v>60020</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="J16">
+        <v>55</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16">
+        <v>30000</v>
+      </c>
+      <c r="N16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>110</v>
+      </c>
+      <c r="T16" t="s">
+        <v>72</v>
+      </c>
+      <c r="U16" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W16" t="s">
+        <v>45</v>
+      </c>
+      <c r="X16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17">
+        <v>60019</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>70</v>
+      </c>
+      <c r="J17">
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17">
+        <v>39900</v>
+      </c>
+      <c r="N17" t="s">
+        <v>113</v>
+      </c>
+      <c r="O17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>114</v>
+      </c>
+      <c r="T17" t="s">
+        <v>72</v>
+      </c>
+      <c r="U17" t="s">
+        <v>43</v>
+      </c>
+      <c r="V17" t="s">
+        <v>44</v>
+      </c>
+      <c r="W17" t="s">
+        <v>45</v>
+      </c>
+      <c r="X17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
+      <c r="A18">
+        <v>60018</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>52</v>
+      </c>
+      <c r="J18">
+        <v>35</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18">
+        <v>69000</v>
+      </c>
+      <c r="N18" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>119</v>
+      </c>
+      <c r="T18" t="s">
+        <v>120</v>
+      </c>
+      <c r="U18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" t="s">
+        <v>63</v>
+      </c>
+      <c r="W18" t="s">
+        <v>45</v>
+      </c>
+      <c r="X18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19">
+        <v>60017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19">
+        <v>24</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>47</v>
+      </c>
+      <c r="J19">
+        <v>32</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19">
+        <v>49000</v>
+      </c>
+      <c r="N19" t="s">
+        <v>123</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>124</v>
+      </c>
+      <c r="T19" t="s">
+        <v>120</v>
+      </c>
+      <c r="U19" t="s">
+        <v>43</v>
+      </c>
+      <c r="V19" t="s">
+        <v>63</v>
+      </c>
+      <c r="W19" t="s">
+        <v>45</v>
+      </c>
+      <c r="X19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="A20">
+        <v>60016</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>35</v>
+      </c>
+      <c r="J20">
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20">
+        <v>16000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" t="s">
+        <v>72</v>
+      </c>
+      <c r="U20" t="s">
+        <v>43</v>
+      </c>
+      <c r="V20" t="s">
+        <v>44</v>
+      </c>
+      <c r="W20" t="s">
+        <v>45</v>
+      </c>
+      <c r="X20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21">
+        <v>60015</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>75</v>
+      </c>
+      <c r="J21">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>13</v>
+      </c>
+      <c r="L21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21">
+        <v>89999</v>
+      </c>
+      <c r="N21" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>132</v>
+      </c>
+      <c r="T21" t="s">
+        <v>72</v>
+      </c>
+      <c r="U21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V21" t="s">
+        <v>44</v>
+      </c>
+      <c r="W21" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22">
+        <v>60014</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>46</v>
+      </c>
+      <c r="J22">
+        <v>27</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22">
+        <v>23000</v>
+      </c>
+      <c r="N22" t="s">
+        <v>134</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>61</v>
+      </c>
+      <c r="T22" t="s">
+        <v>135</v>
+      </c>
+      <c r="U22" t="s">
+        <v>43</v>
+      </c>
+      <c r="V22" t="s">
+        <v>63</v>
+      </c>
+      <c r="W22" t="s">
+        <v>45</v>
+      </c>
+      <c r="X22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="A23">
+        <v>60013</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>44</v>
+      </c>
+      <c r="J23">
+        <v>27</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
+      </c>
+      <c r="L23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23">
+        <v>33900</v>
+      </c>
+      <c r="N23" t="s">
+        <v>137</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" t="s">
+        <v>72</v>
+      </c>
+      <c r="U23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W23" t="s">
+        <v>45</v>
+      </c>
+      <c r="X23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="A24">
+        <v>60012</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24">
+        <v>43</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <v>11</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24">
+        <v>8000</v>
+      </c>
+      <c r="N24" t="s">
+        <v>142</v>
+      </c>
+      <c r="O24" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" t="s">
+        <v>135</v>
+      </c>
+      <c r="U24" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" t="s">
+        <v>63</v>
+      </c>
+      <c r="W24" t="s">
+        <v>45</v>
+      </c>
+      <c r="X24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35">
+      <c r="A25">
+        <v>60011</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>31</v>
+      </c>
+      <c r="J25">
+        <v>15</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25">
+        <v>23000</v>
+      </c>
+      <c r="N25" t="s">
+        <v>145</v>
+      </c>
+      <c r="O25" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" t="s">
+        <v>72</v>
+      </c>
+      <c r="U25" t="s">
+        <v>43</v>
+      </c>
+      <c r="V25" t="s">
+        <v>44</v>
+      </c>
+      <c r="W25" t="s">
+        <v>45</v>
+      </c>
+      <c r="X25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26">
+        <v>60010</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26">
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>97</v>
+      </c>
+      <c r="J26">
+        <v>55</v>
+      </c>
+      <c r="K26">
+        <v>6</v>
+      </c>
+      <c r="L26" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26">
+        <v>41000</v>
+      </c>
+      <c r="N26" t="s">
+        <v>148</v>
+      </c>
+      <c r="O26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>72</v>
+      </c>
+      <c r="U26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V26" t="s">
+        <v>44</v>
+      </c>
+      <c r="W26" t="s">
+        <v>45</v>
+      </c>
+      <c r="X26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27">
+        <v>60009</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>45</v>
+      </c>
+      <c r="J27">
+        <v>21</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27">
+        <v>46000</v>
+      </c>
+      <c r="N27" t="s">
+        <v>151</v>
+      </c>
+      <c r="O27" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27" t="s">
+        <v>152</v>
+      </c>
+      <c r="T27" t="s">
+        <v>54</v>
+      </c>
+      <c r="U27" t="s">
+        <v>43</v>
+      </c>
+      <c r="V27" t="s">
+        <v>44</v>
+      </c>
+      <c r="W27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="A28">
+        <v>60008</v>
+      </c>
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>21</v>
+      </c>
+      <c r="J28">
+        <v>13</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>154</v>
+      </c>
+      <c r="M28">
+        <v>12500</v>
+      </c>
+      <c r="N28" t="s">
+        <v>155</v>
+      </c>
+      <c r="O28" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>156</v>
+      </c>
+      <c r="T28" t="s">
+        <v>135</v>
+      </c>
+      <c r="U28" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" t="s">
+        <v>63</v>
+      </c>
+      <c r="W28" t="s">
+        <v>45</v>
+      </c>
+      <c r="X28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29">
+        <v>60007</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29">
+        <v>66</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>65</v>
+      </c>
+      <c r="J29">
+        <v>55</v>
+      </c>
+      <c r="K29">
+        <v>7</v>
+      </c>
+      <c r="L29" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29">
+        <v>56000</v>
+      </c>
+      <c r="N29" t="s">
+        <v>158</v>
+      </c>
+      <c r="O29" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" t="s">
+        <v>72</v>
+      </c>
+      <c r="U29" t="s">
+        <v>43</v>
+      </c>
+      <c r="V29" t="s">
+        <v>44</v>
+      </c>
+      <c r="W29" t="s">
+        <v>45</v>
+      </c>
+      <c r="X29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30">
+        <v>60006</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30">
+        <v>222</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <v>110</v>
+      </c>
+      <c r="J30">
+        <v>65</v>
+      </c>
+      <c r="K30">
+        <v>45</v>
+      </c>
+      <c r="L30" t="s">
+        <v>86</v>
+      </c>
+      <c r="M30">
+        <v>85000</v>
+      </c>
+      <c r="N30" t="s">
+        <v>160</v>
+      </c>
+      <c r="O30" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30" t="s">
+        <v>161</v>
+      </c>
+      <c r="T30" t="s">
+        <v>72</v>
+      </c>
+      <c r="U30" t="s">
+        <v>43</v>
+      </c>
+      <c r="V30" t="s">
+        <v>44</v>
+      </c>
+      <c r="W30" t="s">
+        <v>45</v>
+      </c>
+      <c r="X30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31">
+        <v>60005</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>43</v>
+      </c>
+      <c r="J31">
+        <v>27</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="L31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31">
+        <v>33500</v>
+      </c>
+      <c r="N31" t="s">
+        <v>163</v>
+      </c>
+      <c r="O31" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" t="s">
+        <v>72</v>
+      </c>
+      <c r="U31" t="s">
+        <v>43</v>
+      </c>
+      <c r="V31" t="s">
+        <v>44</v>
+      </c>
+      <c r="W31" t="s">
+        <v>45</v>
+      </c>
+      <c r="X31" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32">
+        <v>60004</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>38</v>
+      </c>
+      <c r="J32">
+        <v>15</v>
+      </c>
+      <c r="K32">
+        <v>7</v>
+      </c>
+      <c r="L32" t="s">
+        <v>154</v>
+      </c>
+      <c r="M32">
+        <v>15500</v>
+      </c>
+      <c r="N32" t="s">
+        <v>164</v>
+      </c>
+      <c r="O32" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>156</v>
+      </c>
+      <c r="T32" t="s">
+        <v>72</v>
+      </c>
+      <c r="U32" t="s">
+        <v>43</v>
+      </c>
+      <c r="V32" t="s">
+        <v>63</v>
+      </c>
+      <c r="W32" t="s">
+        <v>45</v>
+      </c>
+      <c r="X32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33">
+        <v>60003</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33">
+        <v>56</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>61</v>
+      </c>
+      <c r="J33">
+        <v>48</v>
+      </c>
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33" t="s">
+        <v>79</v>
+      </c>
+      <c r="M33">
+        <v>35000</v>
+      </c>
+      <c r="N33" t="s">
+        <v>166</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
+        <v>167</v>
+      </c>
+      <c r="T33" t="s">
+        <v>54</v>
+      </c>
+      <c r="U33" t="s">
+        <v>43</v>
+      </c>
+      <c r="V33" t="s">
+        <v>44</v>
+      </c>
+      <c r="W33" t="s">
+        <v>45</v>
+      </c>
+      <c r="X33" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34">
+        <v>60002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34">
+        <v>261</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>43</v>
+      </c>
+      <c r="J34">
+        <v>28</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
+      <c r="L34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M34">
+        <v>35000</v>
+      </c>
+      <c r="N34" t="s">
+        <v>169</v>
+      </c>
+      <c r="O34" t="s">
+        <v>170</v>
+      </c>
+      <c r="P34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>171</v>
+      </c>
+      <c r="T34" t="s">
+        <v>172</v>
+      </c>
+      <c r="U34" t="s">
+        <v>172</v>
+      </c>
+      <c r="V34" t="s">
+        <v>44</v>
+      </c>
+      <c r="W34" t="s">
+        <v>173</v>
+      </c>
+      <c r="X34" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35">
+        <v>60001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>43</v>
+      </c>
+      <c r="J35">
+        <v>27</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35" t="s">
+        <v>58</v>
+      </c>
+      <c r="M35">
+        <v>25500</v>
+      </c>
+      <c r="N35" t="s">
+        <v>176</v>
+      </c>
+      <c r="O35" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35" t="s">
+        <v>177</v>
+      </c>
+      <c r="T35" t="s">
+        <v>72</v>
+      </c>
+      <c r="U35" t="s">
+        <v>43</v>
+      </c>
+      <c r="V35" t="s">
+        <v>44</v>
+      </c>
+      <c r="W35" t="s">
+        <v>173</v>
+      </c>
+      <c r="X35" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36">
+        <v>60000</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36">
+        <v>41</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>16</v>
+      </c>
+      <c r="I36">
+        <v>68</v>
+      </c>
+      <c r="J36">
+        <v>55</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36" t="s">
+        <v>86</v>
+      </c>
+      <c r="M36">
+        <v>48000</v>
+      </c>
+      <c r="N36" t="s">
+        <v>180</v>
+      </c>
+      <c r="O36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36" t="s">
+        <v>181</v>
+      </c>
+      <c r="T36" t="s">
+        <v>72</v>
+      </c>
+      <c r="U36" t="s">
+        <v>43</v>
+      </c>
+      <c r="V36" t="s">
+        <v>44</v>
+      </c>
+      <c r="W36" t="s">
+        <v>173</v>
+      </c>
+      <c r="X36" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
+      <c r="A37">
+        <v>59999</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>31</v>
+      </c>
+      <c r="J37">
+        <v>23</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37" t="s">
+        <v>51</v>
+      </c>
+      <c r="M37">
+        <v>25000</v>
+      </c>
+      <c r="N37" t="s">
+        <v>183</v>
+      </c>
+      <c r="O37" t="s">
+        <v>43</v>
+      </c>
+      <c r="P37" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>61</v>
+      </c>
+      <c r="T37" t="s">
+        <v>72</v>
+      </c>
+      <c r="U37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V37" t="s">
+        <v>44</v>
+      </c>
+      <c r="W37" t="s">
+        <v>173</v>
+      </c>
+      <c r="X37" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35">
+      <c r="A38">
+        <v>59998</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>33</v>
+      </c>
+      <c r="J38">
+        <v>17</v>
+      </c>
+      <c r="K38">
+        <v>6</v>
+      </c>
+      <c r="L38" t="s">
+        <v>79</v>
+      </c>
+      <c r="M38">
+        <v>23500</v>
+      </c>
+      <c r="N38" t="s">
+        <v>185</v>
+      </c>
+      <c r="O38" t="s">
+        <v>43</v>
+      </c>
+      <c r="P38" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s">
+        <v>156</v>
+      </c>
+      <c r="T38" t="s">
+        <v>72</v>
+      </c>
+      <c r="U38" t="s">
+        <v>43</v>
+      </c>
+      <c r="V38" t="s">
+        <v>44</v>
+      </c>
+      <c r="W38" t="s">
+        <v>173</v>
+      </c>
+      <c r="X38" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35">
+      <c r="A39">
+        <v>59997</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39">
+        <v>32</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <v>17</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M39">
+        <v>10000</v>
+      </c>
+      <c r="N39" t="s">
+        <v>186</v>
+      </c>
+      <c r="O39" t="s">
+        <v>43</v>
+      </c>
+      <c r="P39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39" t="s">
+        <v>161</v>
+      </c>
+      <c r="T39" t="s">
+        <v>72</v>
+      </c>
+      <c r="U39" t="s">
+        <v>43</v>
+      </c>
+      <c r="V39" t="s">
+        <v>63</v>
+      </c>
+      <c r="W39" t="s">
+        <v>173</v>
+      </c>
+      <c r="X39" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35">
+      <c r="A40">
+        <v>59996</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>57</v>
+      </c>
+      <c r="J40">
+        <v>25</v>
+      </c>
+      <c r="K40">
+        <v>9</v>
+      </c>
+      <c r="L40" t="s">
+        <v>51</v>
+      </c>
+      <c r="M40">
+        <v>46500</v>
+      </c>
+      <c r="N40" t="s">
+        <v>190</v>
+      </c>
+      <c r="O40" t="s">
+        <v>43</v>
+      </c>
+      <c r="P40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40" t="s">
+        <v>191</v>
+      </c>
+      <c r="T40" t="s">
+        <v>72</v>
+      </c>
+      <c r="U40" t="s">
+        <v>43</v>
+      </c>
+      <c r="V40" t="s">
+        <v>44</v>
+      </c>
+      <c r="W40" t="s">
+        <v>173</v>
+      </c>
+      <c r="X40" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35">
+      <c r="A41">
+        <v>59995</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>192</v>
+      </c>
+      <c r="D41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>19</v>
+      </c>
+      <c r="J41">
+        <v>16</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41">
+        <v>21000</v>
+      </c>
+      <c r="N41" t="s">
+        <v>194</v>
+      </c>
+      <c r="O41" t="s">
+        <v>43</v>
+      </c>
+      <c r="P41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41" t="s">
+        <v>43</v>
+      </c>
+      <c r="T41" t="s">
+        <v>72</v>
+      </c>
+      <c r="U41" t="s">
+        <v>43</v>
+      </c>
+      <c r="V41" t="s">
+        <v>44</v>
+      </c>
+      <c r="W41" t="s">
+        <v>173</v>
+      </c>
+      <c r="X41" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35">
+      <c r="A42">
+        <v>59994</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42">
+        <v>118</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>45</v>
+      </c>
+      <c r="J42">
+        <v>27</v>
+      </c>
+      <c r="K42">
+        <v>6</v>
+      </c>
+      <c r="L42" t="s">
+        <v>51</v>
+      </c>
+      <c r="M42">
+        <v>24500</v>
+      </c>
+      <c r="N42" t="s">
+        <v>195</v>
+      </c>
+      <c r="O42" t="s">
+        <v>43</v>
+      </c>
+      <c r="P42" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42" t="s">
+        <v>161</v>
+      </c>
+      <c r="T42" t="s">
+        <v>72</v>
+      </c>
+      <c r="U42" t="s">
+        <v>43</v>
+      </c>
+      <c r="V42" t="s">
+        <v>63</v>
+      </c>
+      <c r="W42" t="s">
+        <v>173</v>
+      </c>
+      <c r="X42" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35">
+      <c r="A43">
+        <v>59993</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>41</v>
+      </c>
+      <c r="J43">
+        <v>27</v>
+      </c>
+      <c r="K43">
+        <v>6</v>
+      </c>
+      <c r="L43" t="s">
+        <v>197</v>
+      </c>
+      <c r="M43">
+        <v>22500</v>
+      </c>
+      <c r="N43" t="s">
+        <v>198</v>
+      </c>
+      <c r="O43" t="s">
+        <v>43</v>
+      </c>
+      <c r="P43" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43" t="s">
+        <v>43</v>
+      </c>
+      <c r="T43" t="s">
+        <v>72</v>
+      </c>
+      <c r="U43" t="s">
+        <v>43</v>
+      </c>
+      <c r="V43" t="s">
+        <v>44</v>
+      </c>
+      <c r="W43" t="s">
+        <v>173</v>
+      </c>
+      <c r="X43" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35">
+      <c r="A44">
+        <v>59992</v>
+      </c>
+      <c r="B44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44">
+        <v>50</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>30</v>
+      </c>
+      <c r="J44">
+        <v>17</v>
+      </c>
+      <c r="K44">
+        <v>7</v>
+      </c>
+      <c r="L44" t="s">
+        <v>154</v>
+      </c>
+      <c r="M44">
+        <v>16000</v>
+      </c>
+      <c r="N44" t="s">
+        <v>200</v>
+      </c>
+      <c r="O44" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44" t="s">
+        <v>43</v>
+      </c>
+      <c r="T44" t="s">
+        <v>72</v>
+      </c>
+      <c r="U44" t="s">
+        <v>43</v>
+      </c>
+      <c r="V44" t="s">
+        <v>44</v>
+      </c>
+      <c r="W44" t="s">
+        <v>173</v>
+      </c>
+      <c r="X44" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35">
+      <c r="A45">
+        <v>59991</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>9</v>
+      </c>
+      <c r="I45">
+        <v>65</v>
+      </c>
+      <c r="J45">
+        <v>32</v>
+      </c>
+      <c r="K45">
+        <v>25</v>
+      </c>
+      <c r="L45" t="s">
+        <v>117</v>
+      </c>
+      <c r="M45">
+        <v>85000</v>
+      </c>
+      <c r="N45" t="s">
+        <v>201</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45" t="s">
+        <v>43</v>
+      </c>
+      <c r="T45" t="s">
+        <v>54</v>
+      </c>
+      <c r="U45" t="s">
+        <v>43</v>
+      </c>
+      <c r="V45" t="s">
+        <v>44</v>
+      </c>
+      <c r="W45" t="s">
+        <v>173</v>
+      </c>
+      <c r="X45" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35">
+      <c r="A46">
+        <v>59990</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>73</v>
+      </c>
+      <c r="J46">
+        <v>45</v>
+      </c>
+      <c r="K46">
+        <v>11</v>
+      </c>
+      <c r="L46" t="s">
+        <v>86</v>
+      </c>
+      <c r="M46">
+        <v>38500</v>
+      </c>
+      <c r="N46" t="s">
+        <v>203</v>
+      </c>
+      <c r="O46" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46" t="s">
+        <v>43</v>
+      </c>
+      <c r="T46" t="s">
+        <v>72</v>
+      </c>
+      <c r="U46" t="s">
+        <v>43</v>
+      </c>
+      <c r="V46" t="s">
+        <v>44</v>
+      </c>
+      <c r="W46" t="s">
+        <v>173</v>
+      </c>
+      <c r="X46" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35">
+      <c r="A47">
+        <v>59989</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" t="s">
+        <v>205</v>
+      </c>
+      <c r="E47">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>107</v>
+      </c>
+      <c r="J47">
+        <v>68</v>
+      </c>
+      <c r="K47">
+        <v>26</v>
+      </c>
+      <c r="L47" t="s">
+        <v>79</v>
+      </c>
+      <c r="M47">
+        <v>110000</v>
+      </c>
+      <c r="N47" t="s">
+        <v>206</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47" t="s">
+        <v>207</v>
+      </c>
+      <c r="T47" t="s">
+        <v>54</v>
+      </c>
+      <c r="U47" t="s">
+        <v>43</v>
+      </c>
+      <c r="V47" t="s">
+        <v>44</v>
+      </c>
+      <c r="W47" t="s">
+        <v>173</v>
+      </c>
+      <c r="X47" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35">
+      <c r="A48">
+        <v>59988</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" t="s">
+        <v>208</v>
+      </c>
+      <c r="E48" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>8</v>
+      </c>
+      <c r="H48">
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <v>50</v>
+      </c>
+      <c r="J48">
+        <v>30</v>
+      </c>
+      <c r="K48">
+        <v>7</v>
+      </c>
+      <c r="L48" t="s">
+        <v>51</v>
+      </c>
+      <c r="M48">
+        <v>43000</v>
+      </c>
+      <c r="N48" t="s">
+        <v>210</v>
+      </c>
+      <c r="O48" t="s">
+        <v>43</v>
+      </c>
+      <c r="P48" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48" t="s">
+        <v>43</v>
+      </c>
+      <c r="T48" t="s">
+        <v>72</v>
+      </c>
+      <c r="U48" t="s">
+        <v>43</v>
+      </c>
+      <c r="V48" t="s">
+        <v>44</v>
+      </c>
+      <c r="W48" t="s">
+        <v>173</v>
+      </c>
+      <c r="X48" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35">
+      <c r="A49">
+        <v>59987</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49">
+        <v>81</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>9</v>
+      </c>
+      <c r="H49">
+        <v>9</v>
+      </c>
+      <c r="I49">
+        <v>39</v>
+      </c>
+      <c r="J49">
+        <v>17</v>
+      </c>
+      <c r="K49">
+        <v>8</v>
+      </c>
+      <c r="L49" t="s">
+        <v>58</v>
+      </c>
+      <c r="M49">
+        <v>28000</v>
+      </c>
+      <c r="N49" t="s">
+        <v>212</v>
+      </c>
+      <c r="O49" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49" t="s">
+        <v>43</v>
+      </c>
+      <c r="T49" t="s">
+        <v>72</v>
+      </c>
+      <c r="U49" t="s">
+        <v>43</v>
+      </c>
+      <c r="V49" t="s">
+        <v>44</v>
+      </c>
+      <c r="W49" t="s">
+        <v>173</v>
+      </c>
+      <c r="X49" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35">
+      <c r="A50">
+        <v>59986</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" t="s">
+        <v>215</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>80</v>
+      </c>
+      <c r="J50">
+        <v>55</v>
+      </c>
+      <c r="K50">
+        <v>20</v>
+      </c>
+      <c r="L50" t="s">
+        <v>141</v>
+      </c>
+      <c r="M50">
+        <v>31500</v>
+      </c>
+      <c r="N50" t="s">
+        <v>216</v>
+      </c>
+      <c r="O50" t="s">
+        <v>217</v>
+      </c>
+      <c r="P50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50" t="s">
+        <v>43</v>
+      </c>
+      <c r="T50" t="s">
+        <v>72</v>
+      </c>
+      <c r="U50" t="s">
+        <v>43</v>
+      </c>
+      <c r="V50" t="s">
+        <v>44</v>
+      </c>
+      <c r="W50" t="s">
+        <v>173</v>
+      </c>
+      <c r="X50" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35">
+      <c r="A51">
+        <v>59985</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>132</v>
+      </c>
+      <c r="J51">
+        <v>92</v>
+      </c>
+      <c r="K51">
+        <v>18</v>
+      </c>
+      <c r="L51" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51">
+        <v>133000</v>
+      </c>
+      <c r="N51" t="s">
+        <v>219</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51" t="s">
+        <v>220</v>
+      </c>
+      <c r="T51" t="s">
+        <v>54</v>
+      </c>
+      <c r="U51" t="s">
+        <v>43</v>
+      </c>
+      <c r="V51" t="s">
+        <v>44</v>
+      </c>
+      <c r="W51" t="s">
+        <v>173</v>
+      </c>
+      <c r="X51" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <autoFilter ref="A1:AI8"/>
+  <autoFilter ref="A1:AI50"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
